--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1470452.602572895</v>
+        <v>-1473352.658332446</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>106.6561446076805</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>51.50729581477309</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>106.6561446076805</v>
+        <v>13.59245265117903</v>
       </c>
       <c r="H5" t="n">
-        <v>106.6561446076805</v>
+        <v>73.47423377755376</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.43543635567184</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>93.94273217044419</v>
       </c>
       <c r="D6" t="n">
-        <v>99.3659807000938</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>57.89048308456474</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>43.34241299346688</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>106.6561446076805</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>106.6561446076805</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.6561446076805</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>32.9012123780626</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="H7" t="n">
-        <v>32.90121237806373</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>106.6561446076805</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.11991388695517</v>
+        <v>39.11991388695536</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.92160590542605</v>
+        <v>21.92160590542626</v>
       </c>
       <c r="R7" t="n">
-        <v>106.6561446076805</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>63.93308893378725</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>72.9338501414986</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>239.8079481415046</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S9" t="n">
         <v>147.9721212459916</v>
@@ -1269,10 +1269,10 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
-        <v>80.37815122549991</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>108.0963936548399</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176904</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.6070988598685</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.7697450946318</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>159.2282838500196</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>132.1083451895288</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>79.90830534549397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>29.74323182895594</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>337.9750367433945</v>
       </c>
       <c r="H14" t="n">
-        <v>136.8421891979241</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
         <v>250.9345864167828</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>10.21046662830544</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442975</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1819,7 +1819,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>200.9224816057873</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645668</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1907,10 +1907,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894974</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
         <v>317.630766365199</v>
@@ -2147,7 +2147,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464138</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707172</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453232</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612671</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368231</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894974</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179215</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W23" t="n">
         <v>317.630766365199</v>
@@ -2384,7 +2384,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707172</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510304</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442996</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453197</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545723</v>
@@ -2649,10 +2649,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H27" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>134.0758985510281</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453152</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401436</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612651</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894974</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
         <v>317.630766365199</v>
@@ -2858,7 +2858,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707172</v>
@@ -2965,10 +2965,10 @@
         <v>134.0758985510281</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053443016</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221828</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112665</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.0728392684689</v>
@@ -3047,7 +3047,7 @@
         <v>255.2416659947558</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.096243179039447e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295165</v>
+        <v>60.32014642295167</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545722</v>
@@ -3086,7 +3086,7 @@
         <v>219.3243840645687</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179215</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W32" t="n">
         <v>317.630766365199</v>
@@ -3123,10 +3123,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H33" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>148.2217778297232</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464172</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659983</v>
@@ -3196,16 +3196,16 @@
         <v>114.8237602943551</v>
       </c>
       <c r="F34" t="n">
-        <v>113.810845670721</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
         <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139452999</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642294905</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
         <v>317.6307663651991</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659994</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
         <v>114.8237602943552</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,13 +3478,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,10 +3512,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3749,7 +3749,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894955</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179188</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
         <v>317.6307663651991</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.7605013037807</v>
+        <v>103.4241402256288</v>
       </c>
       <c r="C5" t="n">
-        <v>383.7605013037807</v>
+        <v>103.4241402256288</v>
       </c>
       <c r="D5" t="n">
-        <v>276.0270219020832</v>
+        <v>103.4241402256288</v>
       </c>
       <c r="E5" t="n">
-        <v>276.0270219020832</v>
+        <v>103.4241402256288</v>
       </c>
       <c r="F5" t="n">
-        <v>223.9994503720094</v>
+        <v>96.47863947642529</v>
       </c>
       <c r="G5" t="n">
-        <v>116.2659709703119</v>
+        <v>82.7488893237192</v>
       </c>
       <c r="H5" t="n">
-        <v>8.532491568614439</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="I5" t="n">
-        <v>8.532491568614439</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="J5" t="n">
-        <v>8.532491568614439</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="K5" t="n">
-        <v>97.83114191150048</v>
+        <v>70.93606611009346</v>
       </c>
       <c r="L5" t="n">
-        <v>131.6192119732666</v>
+        <v>104.7241361718586</v>
       </c>
       <c r="M5" t="n">
-        <v>200.8843876252043</v>
+        <v>173.9893118237952</v>
       </c>
       <c r="N5" t="n">
-        <v>306.473970786808</v>
+        <v>248.9890788111248</v>
       </c>
       <c r="O5" t="n">
-        <v>412.0635539484117</v>
+        <v>306.4739707868064</v>
       </c>
       <c r="P5" t="n">
-        <v>426.624578430722</v>
+        <v>321.0349952691158</v>
       </c>
       <c r="Q5" t="n">
-        <v>426.624578430722</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="R5" t="n">
-        <v>383.7605013037807</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="S5" t="n">
-        <v>383.7605013037807</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="T5" t="n">
-        <v>383.7605013037807</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="U5" t="n">
-        <v>383.7605013037807</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="V5" t="n">
-        <v>383.7605013037807</v>
+        <v>318.891099029022</v>
       </c>
       <c r="W5" t="n">
-        <v>383.7605013037807</v>
+        <v>211.1576196273254</v>
       </c>
       <c r="X5" t="n">
-        <v>383.7605013037807</v>
+        <v>211.1576196273254</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.7605013037807</v>
+        <v>103.4241402256288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.377404482411</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="C6" t="n">
-        <v>167.377404482411</v>
+        <v>331.7329297737043</v>
       </c>
       <c r="D6" t="n">
-        <v>67.00772700756872</v>
+        <v>223.9994503720077</v>
       </c>
       <c r="E6" t="n">
-        <v>67.00772700756872</v>
+        <v>116.265970970311</v>
       </c>
       <c r="F6" t="n">
-        <v>67.00772700756872</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="G6" t="n">
-        <v>67.00772700756872</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="H6" t="n">
-        <v>67.00772700756872</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="I6" t="n">
-        <v>8.532491568614439</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="J6" t="n">
-        <v>8.532491568614439</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="K6" t="n">
-        <v>41.17901621094983</v>
+        <v>18.35765765998162</v>
       </c>
       <c r="L6" t="n">
-        <v>100.712705676753</v>
+        <v>77.89134712578408</v>
       </c>
       <c r="M6" t="n">
-        <v>206.3022888383567</v>
+        <v>166.7212228819195</v>
       </c>
       <c r="N6" t="n">
-        <v>311.8918719999604</v>
+        <v>272.3108060435223</v>
       </c>
       <c r="O6" t="n">
-        <v>386.2659167946492</v>
+        <v>346.6848508382104</v>
       </c>
       <c r="P6" t="n">
-        <v>426.624578430722</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="Q6" t="n">
-        <v>426.624578430722</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="R6" t="n">
-        <v>382.8443632858059</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="S6" t="n">
-        <v>382.8443632858059</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="T6" t="n">
-        <v>382.8443632858059</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="U6" t="n">
-        <v>382.8443632858059</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="V6" t="n">
-        <v>275.1108838841084</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="W6" t="n">
-        <v>275.1108838841084</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="X6" t="n">
-        <v>167.377404482411</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.377404482411</v>
+        <v>426.6245784307187</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.0145833592199</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="C7" t="n">
-        <v>189.0145833592199</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="D7" t="n">
-        <v>189.0145833592199</v>
+        <v>371.2479943059824</v>
       </c>
       <c r="E7" t="n">
-        <v>189.0145833592199</v>
+        <v>263.5145149042858</v>
       </c>
       <c r="F7" t="n">
-        <v>189.0145833592199</v>
+        <v>155.7810355025892</v>
       </c>
       <c r="G7" t="n">
-        <v>189.0145833592199</v>
+        <v>48.04755610089252</v>
       </c>
       <c r="H7" t="n">
-        <v>155.7810355025899</v>
+        <v>48.04755610089252</v>
       </c>
       <c r="I7" t="n">
-        <v>48.04755610089239</v>
+        <v>48.04755610089252</v>
       </c>
       <c r="J7" t="n">
-        <v>8.532491568614439</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="K7" t="n">
-        <v>74.72615296003028</v>
+        <v>8.532491568614374</v>
       </c>
       <c r="L7" t="n">
-        <v>180.315736121634</v>
+        <v>109.8558289459101</v>
       </c>
       <c r="M7" t="n">
-        <v>180.315736121634</v>
+        <v>215.445412107513</v>
       </c>
       <c r="N7" t="n">
-        <v>285.9053192832376</v>
+        <v>321.0349952691158</v>
       </c>
       <c r="O7" t="n">
-        <v>337.4603495776929</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="P7" t="n">
-        <v>426.624578430722</v>
+        <v>426.6245784307187</v>
       </c>
       <c r="Q7" t="n">
-        <v>404.4815421626149</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="R7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="S7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="T7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="U7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="V7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="W7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="X7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
       <c r="Y7" t="n">
-        <v>296.7480627609174</v>
+        <v>404.4815421626113</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>643.3309862195506</v>
+        <v>103.7563920345885</v>
       </c>
       <c r="C8" t="n">
-        <v>643.3309862195506</v>
+        <v>103.7563920345885</v>
       </c>
       <c r="D8" t="n">
-        <v>401.1007355715661</v>
+        <v>103.7563920345885</v>
       </c>
       <c r="E8" t="n">
-        <v>158.8704849235816</v>
+        <v>103.7563920345885</v>
       </c>
       <c r="F8" t="n">
-        <v>151.9249841743781</v>
+        <v>96.81089128538507</v>
       </c>
       <c r="G8" t="n">
-        <v>138.8776064512096</v>
+        <v>83.76351356221659</v>
       </c>
       <c r="H8" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I8" t="n">
         <v>19.18463585132037</v>
@@ -4805,49 +4805,49 @@
         <v>40.41888584470371</v>
       </c>
       <c r="K8" t="n">
-        <v>122.982040419296</v>
+        <v>122.9820404192959</v>
       </c>
       <c r="L8" t="n">
-        <v>262.3106962605492</v>
+        <v>262.3106962605488</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859565</v>
+        <v>449.0101090859562</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779385</v>
+        <v>643.3443219779381</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948974</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444236</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.2317925660185</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660185</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S8" t="n">
-        <v>959.2317925660185</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="T8" t="n">
-        <v>959.2317925660185</v>
+        <v>588.2168933305575</v>
       </c>
       <c r="U8" t="n">
-        <v>959.2317925660185</v>
+        <v>588.2168933305575</v>
       </c>
       <c r="V8" t="n">
-        <v>959.2317925660185</v>
+        <v>588.2168933305575</v>
       </c>
       <c r="W8" t="n">
-        <v>959.2317925660185</v>
+        <v>588.2168933305575</v>
       </c>
       <c r="X8" t="n">
-        <v>885.5612368675351</v>
+        <v>588.2168933305575</v>
       </c>
       <c r="Y8" t="n">
-        <v>643.3309862195506</v>
+        <v>345.986642682573</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G9" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H9" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I9" t="n">
         <v>19.18463585132037</v>
@@ -4884,49 +4884,49 @@
         <v>19.18463585132037</v>
       </c>
       <c r="K9" t="n">
-        <v>152.9092351450199</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L9" t="n">
-        <v>290.1388331607136</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M9" t="n">
-        <v>469.6361695153182</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N9" t="n">
-        <v>668.2929111679827</v>
+        <v>640.9292585450651</v>
       </c>
       <c r="O9" t="n">
-        <v>827.805223836743</v>
+        <v>800.4415712138255</v>
       </c>
       <c r="P9" t="n">
-        <v>936.4948513640417</v>
+        <v>909.1311987411241</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660185</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R9" t="n">
-        <v>959.2317925660185</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="S9" t="n">
-        <v>809.7650034286532</v>
+        <v>788.6531038308399</v>
       </c>
       <c r="T9" t="n">
-        <v>612.7757075887408</v>
+        <v>591.6638079909275</v>
       </c>
       <c r="U9" t="n">
-        <v>384.6369200999066</v>
+        <v>363.5250205020932</v>
       </c>
       <c r="V9" t="n">
-        <v>303.4468683569774</v>
+        <v>128.3729122703505</v>
       </c>
       <c r="W9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="X9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="Y9" t="n">
-        <v>303.4468683569774</v>
+        <v>19.18463585132037</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335.0889566054119</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="C10" t="n">
-        <v>335.0889566054119</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="D10" t="n">
-        <v>184.9723171930762</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="E10" t="n">
-        <v>37.05922361068303</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="F10" t="n">
-        <v>37.05922361068303</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="G10" t="n">
-        <v>37.05922361068303</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="H10" t="n">
-        <v>37.05922361068303</v>
+        <v>161.5708982363568</v>
       </c>
       <c r="I10" t="n">
         <v>37.05922361068303</v>
@@ -4969,43 +4969,43 @@
         <v>305.0655603477483</v>
       </c>
       <c r="M10" t="n">
-        <v>450.4476363223401</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N10" t="n">
-        <v>656.2710011584443</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O10" t="n">
-        <v>830.3658965470431</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P10" t="n">
-        <v>955.8134731456587</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660185</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R10" t="n">
-        <v>959.2317925660185</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S10" t="n">
-        <v>783.8710866469594</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T10" t="n">
-        <v>783.8710866469594</v>
+        <v>733.6025958783833</v>
       </c>
       <c r="U10" t="n">
-        <v>783.8710866469594</v>
+        <v>733.6025958783833</v>
       </c>
       <c r="V10" t="n">
-        <v>783.8710866469594</v>
+        <v>733.6025958783833</v>
       </c>
       <c r="W10" t="n">
-        <v>783.8710866469594</v>
+        <v>733.6025958783833</v>
       </c>
       <c r="X10" t="n">
-        <v>555.881535748942</v>
+        <v>505.613044980366</v>
       </c>
       <c r="Y10" t="n">
-        <v>335.0889566054119</v>
+        <v>343.2193630665965</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038043</v>
+        <v>1681.836054204829</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097631</v>
+        <v>1312.873537264417</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490881</v>
+        <v>954.6078386576669</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>954.6078386576669</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>856.5030099609336</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C13" t="n">
-        <v>775.7875500159902</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D13" t="n">
-        <v>625.6709106036544</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1548.361223971664</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.361223971664</v>
+        <v>1416.462128526866</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.944053934703</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="X13" t="n">
-        <v>1258.944053934703</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y13" t="n">
-        <v>1038.151474791173</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2161.514696632239</v>
+        <v>2252.62650257318</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.552179691827</v>
+        <v>1883.663985632768</v>
       </c>
       <c r="D14" t="n">
-        <v>1434.286481085077</v>
+        <v>1525.398287026018</v>
       </c>
       <c r="E14" t="n">
-        <v>1048.498228486833</v>
+        <v>1139.610034427774</v>
       </c>
       <c r="F14" t="n">
-        <v>637.5123236972252</v>
+        <v>728.6241296381661</v>
       </c>
       <c r="G14" t="n">
-        <v>223.2048425083729</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511619</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5288,40 +5288,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.020448755809</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>4249.020448755809</v>
+        <v>3953.532414632628</v>
       </c>
       <c r="U14" t="n">
-        <v>3995.551169546938</v>
+        <v>3700.063135423757</v>
       </c>
       <c r="V14" t="n">
-        <v>3664.488282203367</v>
+        <v>3369.000248080186</v>
       </c>
       <c r="W14" t="n">
-        <v>3311.719626933253</v>
+        <v>3016.231592810072</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.253868672173</v>
+        <v>2642.765834548992</v>
       </c>
       <c r="Y14" t="n">
-        <v>2548.114536696361</v>
+        <v>2252.62650257318</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>165.625743894656</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>468.6667932445202</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>922.4654228388475</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1471.383887449136</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N15" t="n">
-        <v>2049.239235375539</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O15" t="n">
-        <v>2555.644190323788</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>421.2762897850859</v>
+        <v>555.9367203349885</v>
       </c>
       <c r="C16" t="n">
-        <v>252.340106857179</v>
+        <v>555.9367203349885</v>
       </c>
       <c r="D16" t="n">
-        <v>252.340106857179</v>
+        <v>405.8200809226528</v>
       </c>
       <c r="E16" t="n">
-        <v>252.340106857179</v>
+        <v>395.5064782677988</v>
       </c>
       <c r="F16" t="n">
-        <v>252.340106857179</v>
+        <v>395.5064782677988</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511619</v>
+        <v>228.1467803857361</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755866</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869775</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042031</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.16862496767</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685724</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521728</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.808542899721</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1341.124054693834</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>1051.706884656873</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="X16" t="n">
-        <v>823.7173337588557</v>
+        <v>737.5851851652283</v>
       </c>
       <c r="Y16" t="n">
-        <v>602.9247546153256</v>
+        <v>737.5851851652283</v>
       </c>
     </row>
     <row r="17">
@@ -5501,25 +5501,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746738</v>
@@ -5528,22 +5528,22 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
         <v>3795.851627400162</v>
@@ -5586,10 +5586,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
@@ -5601,16 +5601,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538067</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N18" t="n">
-        <v>2100.171002464469</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477713</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L19" t="n">
         <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
@@ -5689,31 +5689,31 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796689</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5765,37 +5765,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
@@ -5835,10 +5835,10 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
         <v>2100.171002464469</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502118</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477735</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609066</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039822</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315405</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749465</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897953</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
         <v>857.3827676902788</v>
@@ -5920,7 +5920,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
         <v>2087.878830313936</v>
@@ -5941,19 +5941,19 @@
         <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6005,16 +6005,16 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283564</v>
@@ -6029,10 +6029,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1084.28233189698</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>1662.137679823383</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502118</v>
+        <v>872.8624197502115</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477735</v>
+        <v>735.8557341477733</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609066</v>
+        <v>617.6685920609063</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039822</v>
+        <v>501.6849958039819</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315405</v>
+        <v>386.7245456315403</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749462</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.057470989795</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
         <v>857.3827676902788</v>
@@ -6157,7 +6157,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
@@ -6181,16 +6181,16 @@
         <v>1887.747186237503</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076848</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
         <v>4188.091007924546</v>
@@ -6257,16 +6257,16 @@
         <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.13298385146</v>
@@ -6297,10 +6297,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
         <v>216.5575109835859</v>
@@ -6309,10 +6309,10 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
         <v>2100.171002464469</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609059</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039815</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315398</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749457</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897945</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
@@ -6403,31 +6403,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511621</v>
@@ -6461,10 +6461,10 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6476,7 +6476,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612703</v>
@@ -6488,25 +6488,25 @@
         <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X29" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1665.552851106135</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502115</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477733</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609063</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039819</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315403</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749462</v>
       </c>
       <c r="H31" t="n">
         <v>140.057470989793</v>
@@ -6622,7 +6622,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902788</v>
@@ -6631,7 +6631,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6643,28 +6643,28 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796694</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162858</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511834</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233286</v>
@@ -6719,31 +6719,31 @@
         <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6783,16 +6783,16 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
         <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502129</v>
+        <v>872.8624197502127</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477748</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609078</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039835</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F34" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749441</v>
@@ -6853,10 +6853,10 @@
         <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443614</v>
@@ -6923,46 +6923,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283565</v>
@@ -7008,28 +7008,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F37" t="n">
         <v>386.7245456315384</v>
@@ -7087,58 +7087,58 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511436</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7190,34 +7190,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313935</v>
@@ -7351,28 +7351,28 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
         <v>2555.644190323788</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
@@ -7564,22 +7564,22 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313935</v>
@@ -7588,19 +7588,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7634,52 +7634,52 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951436</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
         <v>3496.71823738206</v>
@@ -7719,10 +7719,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7783,46 +7783,46 @@
         <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7834,7 +7834,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>35.88761455449836</v>
+        <v>35.88761455449887</v>
       </c>
       <c r="K5" t="n">
-        <v>92.73585969354008</v>
+        <v>65.56911645979645</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>30.89880421643744</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>48.59059715749606</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>37.61416527191801</v>
+        <v>144.2703098795983</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>40.38234359307137</v>
+        <v>40.38234359307168</v>
       </c>
       <c r="K6" t="n">
-        <v>23.05187732420974</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>16.9289973792601</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.98087470347082</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.17222213514096</v>
+        <v>23.17222213514137</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>39.88148211089947</v>
       </c>
       <c r="L7" t="n">
-        <v>127.4828345290368</v>
+        <v>123.1734953529686</v>
       </c>
       <c r="M7" t="n">
-        <v>18.66762944085174</v>
+        <v>125.3237740485318</v>
       </c>
       <c r="N7" t="n">
-        <v>116.9430046901392</v>
+        <v>116.9430046901388</v>
       </c>
       <c r="O7" t="n">
-        <v>82.09564007287833</v>
+        <v>136.6759965043409</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>44.94168568471915</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928469</v>
       </c>
       <c r="K9" t="n">
-        <v>66.784625889235</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>39.14457273477282</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>27.64005315446208</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,7 +8617,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>118.0172116724295</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
         <v>171.8177168444618</v>
@@ -8626,7 +8626,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>74.51411407702477</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>14.87542442342333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>335.0985819152745</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>199.2826725088645</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>159.2533636333882</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.71042464403978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3085741960093</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>222.7020862222422</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.7677005521826</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396185</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>87.33851575313386</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>222.3944114948721</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>72.18936963356919</v>
       </c>
       <c r="H14" t="n">
-        <v>150.0096791490457</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605503</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516574</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>136.2234960182637</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674408</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>85.27082710769179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.074784788419493e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.287947609147523e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.442401753593003e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.535823333140371e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-2.586375558166765e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.836930773104541e-12</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1250178.494093084</v>
+        <v>1250178.494093083</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1196381.203569691</v>
+        <v>1196381.203569692</v>
       </c>
     </row>
     <row r="7">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154617.7064385523</v>
+        <v>154617.7064385522</v>
       </c>
       <c r="C2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="D2" t="n">
-        <v>164208.3539728566</v>
-      </c>
       <c r="E2" t="n">
-        <v>136398.8395883683</v>
+        <v>136398.8395883682</v>
       </c>
       <c r="F2" t="n">
-        <v>153348.636390262</v>
+        <v>153348.6363902621</v>
       </c>
       <c r="G2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="H2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="I2" t="n">
+        <v>164208.353972857</v>
+      </c>
+      <c r="J2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="K2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="L2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="J2" t="n">
-        <v>164208.3539728569</v>
-      </c>
-      <c r="K2" t="n">
-        <v>164208.3539728565</v>
-      </c>
-      <c r="L2" t="n">
-        <v>164208.3539728568</v>
-      </c>
       <c r="M2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728566</v>
@@ -26366,22 +26366,22 @@
         <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>325066.2934146345</v>
+        <v>325066.2934146329</v>
       </c>
       <c r="D3" t="n">
-        <v>185275.1002334757</v>
+        <v>185275.1002334772</v>
       </c>
       <c r="E3" t="n">
-        <v>575366.1973577669</v>
+        <v>575366.1973577673</v>
       </c>
       <c r="F3" t="n">
         <v>215052.1096963077</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177115</v>
+        <v>25288.16188177112</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27449.87862538945</v>
+        <v>27449.8786253893</v>
       </c>
       <c r="L3" t="n">
-        <v>58987.68498995026</v>
+        <v>58987.68498995051</v>
       </c>
       <c r="M3" t="n">
-        <v>147427.4683834175</v>
+        <v>147427.4683834174</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578609</v>
+        <v>56542.29359578632</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364944.9474012261</v>
+        <v>364944.9474012259</v>
       </c>
       <c r="C4" t="n">
-        <v>309257.3780148547</v>
+        <v>309257.3780148552</v>
       </c>
       <c r="D4" t="n">
         <v>255177.1421685145</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066935</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
         <v>8669.990103765376</v>
       </c>
       <c r="G4" t="n">
-        <v>39739.87518598541</v>
+        <v>39739.87518598538</v>
       </c>
       <c r="H4" t="n">
-        <v>39739.87518598555</v>
+        <v>39739.8751859855</v>
       </c>
       <c r="I4" t="n">
-        <v>39739.87518598551</v>
+        <v>39739.87518598548</v>
       </c>
       <c r="J4" t="n">
         <v>39739.87518598547</v>
       </c>
       <c r="K4" t="n">
+        <v>39739.87518598547</v>
+      </c>
+      <c r="L4" t="n">
+        <v>39739.87518598543</v>
+      </c>
+      <c r="M4" t="n">
         <v>39739.87518598555</v>
       </c>
-      <c r="L4" t="n">
-        <v>39739.87518598553</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="O4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="P4" t="n">
         <v>39739.87518598545</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39739.87518598554</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39739.87518598551</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39739.8751859855</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
-        <v>49386.74083816452</v>
+        <v>49386.74083816443</v>
       </c>
       <c r="D5" t="n">
         <v>61145.70223437329</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060697</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
@@ -26497,19 +26497,19 @@
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="N5" t="n">
-        <v>95106.43410215527</v>
-      </c>
       <c r="O5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348698.4600288507</v>
+        <v>-348818.3431230294</v>
       </c>
       <c r="C6" t="n">
-        <v>-519502.058294797</v>
+        <v>-519502.0582947958</v>
       </c>
       <c r="D6" t="n">
-        <v>-337389.590663507</v>
+        <v>-337389.5906635084</v>
       </c>
       <c r="E6" t="n">
-        <v>-521824.2135028589</v>
+        <v>-522171.8324326653</v>
       </c>
       <c r="F6" t="n">
-        <v>-162822.459410418</v>
+        <v>-162958.2058802005</v>
       </c>
       <c r="G6" t="n">
-        <v>4073.88280294479</v>
+        <v>4073.882802944834</v>
       </c>
       <c r="H6" t="n">
-        <v>29362.04468471563</v>
+        <v>29362.04468471573</v>
       </c>
       <c r="I6" t="n">
-        <v>29362.04468471587</v>
+        <v>29362.04468471627</v>
       </c>
       <c r="J6" t="n">
-        <v>29362.04468471618</v>
+        <v>29362.04468471589</v>
       </c>
       <c r="K6" t="n">
-        <v>1912.166059326264</v>
+        <v>1912.166059326555</v>
       </c>
       <c r="L6" t="n">
-        <v>-29625.64030523429</v>
+        <v>-29625.64030523453</v>
       </c>
       <c r="M6" t="n">
-        <v>-118065.4236987013</v>
+        <v>-118065.4236987016</v>
       </c>
       <c r="N6" t="n">
-        <v>-27180.24891107027</v>
+        <v>-27180.24891107032</v>
       </c>
       <c r="O6" t="n">
-        <v>29362.04468471583</v>
+        <v>29362.04468471589</v>
       </c>
       <c r="P6" t="n">
-        <v>29362.04468471585</v>
+        <v>29362.04468471589</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J2" t="n">
         <v>31.610202352214</v>
       </c>
       <c r="K2" t="n">
+        <v>31.610202352214</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221405</v>
       </c>
-      <c r="L2" t="n">
-        <v>31.61020235221409</v>
-      </c>
       <c r="M2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>425.4333599090619</v>
+        <v>425.4333599090604</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380646</v>
@@ -26790,19 +26790,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>106.6561446076805</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="D4" t="n">
         <v>239.8079481415046</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26820,16 +26820,16 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
+        <v>1062.255112188952</v>
+      </c>
+      <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
-      <c r="N4" t="n">
-        <v>1062.255112188952</v>
-      </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>319.1392283457712</v>
+        <v>319.1392283457698</v>
       </c>
       <c r="D3" t="n">
-        <v>168.0427404290027</v>
+        <v>168.0427404290042</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552335</v>
+        <v>496.3006002552337</v>
       </c>
       <c r="F3" t="n">
         <v>188.3831700268245</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>106.6561446076805</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1518035338241</v>
+        <v>133.1518035338249</v>
       </c>
       <c r="E4" t="n">
-        <v>591.593507260788</v>
+        <v>591.5935072607886</v>
       </c>
       <c r="F4" t="n">
         <v>230.8536567866597</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.6561446076803</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="L4" t="n">
-        <v>133.1518035338241</v>
+        <v>133.1518035338252</v>
       </c>
       <c r="M4" t="n">
-        <v>591.5935072607882</v>
+        <v>591.5935072607881</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866593</v>
+        <v>230.8536567866602</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.6561446076805</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="L4" t="n">
-        <v>133.1518035338241</v>
+        <v>133.1518035338249</v>
       </c>
       <c r="M4" t="n">
-        <v>591.593507260788</v>
+        <v>591.5935072607886</v>
       </c>
       <c r="N4" t="n">
         <v>230.8536567866597</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>335.0985819152745</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>194.0019016021898</v>
@@ -27427,7 +27427,7 @@
         <v>123.0269119439133</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
         <v>221.2252865051633</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>210.4777370450808</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.5275140120138</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27591,7 +27591,7 @@
         <v>227.1266018572201</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3085741960093</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>248.0268970130025</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>355.3687499269383</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>306.9363080434985</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>215.303202645097</v>
+        <v>248.4851134752238</v>
       </c>
       <c r="I5" t="n">
-        <v>144.5401323527411</v>
+        <v>144.5401323527414</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.43543635567221</v>
       </c>
       <c r="S5" t="n">
-        <v>170.0469532488474</v>
+        <v>170.0469532488475</v>
       </c>
       <c r="T5" t="n">
-        <v>215.6090775721638</v>
+        <v>215.6090775721639</v>
       </c>
       <c r="U5" t="n">
         <v>251.20883011872</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>221.0961138624552</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>242.5848241097333</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>279.5817940483739</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>78.76576681787155</v>
       </c>
       <c r="D6" t="n">
-        <v>48.07908486454495</v>
+        <v>40.78892095695909</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>50.98893584772128</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>38.41306778570421</v>
       </c>
       <c r="G6" t="n">
         <v>136.4284340871798</v>
@@ -27713,7 +27713,7 @@
         <v>103.3976682127252</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>57.89048308456485</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>43.34241299346708</v>
       </c>
       <c r="S6" t="n">
-        <v>154.6859043187918</v>
+        <v>154.6859043187919</v>
       </c>
       <c r="T6" t="n">
         <v>196.4763017348553</v>
@@ -27752,13 +27752,13 @@
         <v>225.8811792470254</v>
       </c>
       <c r="V6" t="n">
-        <v>126.1444425417448</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>99.11684059579699</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.17583557425681</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7142606401498</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>39.77781803888951</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>38.76490341525158</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2238044471473</v>
+        <v>60.56765983946767</v>
       </c>
       <c r="H7" t="n">
-        <v>122.5050777360798</v>
+        <v>155.4062901141435</v>
       </c>
       <c r="I7" t="n">
-        <v>25.72328844123063</v>
+        <v>132.3794330489112</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>36.1422730299772</v>
+        <v>142.7984176376578</v>
       </c>
       <c r="S7" t="n">
-        <v>210.6468316280268</v>
+        <v>210.6468316280269</v>
       </c>
       <c r="T7" t="n">
-        <v>224.667660261769</v>
+        <v>224.6676602617691</v>
       </c>
       <c r="U7" t="n">
         <v>286.2771834522375</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>142.925893521976</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>114.8750934791783</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>142.1224219307572</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>251.1077951414283</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>296.7972505369704</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>146.429990514549</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27989,10 +27989,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>152.4224359239254</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>143.5985895060797</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>31.75878304025017</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>57.81490825746297</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.626464457253472e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>31.610202352214</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221405</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605287</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221667</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605682</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221594</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G41" t="n">
         <v>31.61020235221395</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.710284863956026</v>
+        <v>1.71028486395602</v>
       </c>
       <c r="H5" t="n">
-        <v>17.51545486298966</v>
+        <v>17.5154548629896</v>
       </c>
       <c r="I5" t="n">
-        <v>65.93575721766477</v>
+        <v>65.93575721766454</v>
       </c>
       <c r="J5" t="n">
-        <v>145.1582899721879</v>
+        <v>145.1582899721874</v>
       </c>
       <c r="K5" t="n">
-        <v>217.5546482634466</v>
+        <v>217.5546482634458</v>
       </c>
       <c r="L5" t="n">
-        <v>269.8957786687409</v>
+        <v>269.8957786687399</v>
       </c>
       <c r="M5" t="n">
-        <v>300.3110571181189</v>
+        <v>300.3110571181178</v>
       </c>
       <c r="N5" t="n">
-        <v>305.1704039878339</v>
+        <v>305.1704039878329</v>
       </c>
       <c r="O5" t="n">
-        <v>288.1637588718712</v>
+        <v>288.1637588718702</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9411012929567</v>
+        <v>245.9411012929559</v>
       </c>
       <c r="Q5" t="n">
-        <v>184.6915246025315</v>
+        <v>184.6915246025308</v>
       </c>
       <c r="R5" t="n">
-        <v>107.4336815854778</v>
+        <v>107.4336815854775</v>
       </c>
       <c r="S5" t="n">
-        <v>38.97311633739799</v>
+        <v>38.97311633739785</v>
       </c>
       <c r="T5" t="n">
-        <v>7.486771991967509</v>
+        <v>7.486771991967483</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1368227891164821</v>
+        <v>0.1368227891164816</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9150830760308124</v>
+        <v>0.9150830760308092</v>
       </c>
       <c r="H6" t="n">
-        <v>8.837776023771269</v>
+        <v>8.837776023771237</v>
       </c>
       <c r="I6" t="n">
-        <v>31.50614976685034</v>
+        <v>31.50614976685023</v>
       </c>
       <c r="J6" t="n">
-        <v>86.45528307359533</v>
+        <v>86.45528307359501</v>
       </c>
       <c r="K6" t="n">
-        <v>147.7658491676598</v>
+        <v>147.7658491676592</v>
       </c>
       <c r="L6" t="n">
-        <v>198.6894196443218</v>
+        <v>198.6894196443211</v>
       </c>
       <c r="M6" t="n">
-        <v>231.8611811504387</v>
+        <v>231.8611811504379</v>
       </c>
       <c r="N6" t="n">
-        <v>237.9978566910138</v>
+        <v>237.997856691013</v>
       </c>
       <c r="O6" t="n">
-        <v>217.7215422168574</v>
+        <v>217.7215422168566</v>
       </c>
       <c r="P6" t="n">
-        <v>174.7407322992522</v>
+        <v>174.7407322992516</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.8095519508806</v>
+        <v>116.8095519508801</v>
       </c>
       <c r="R6" t="n">
-        <v>56.81542115917625</v>
+        <v>56.81542115917605</v>
       </c>
       <c r="S6" t="n">
-        <v>16.997266785046</v>
+        <v>16.99726678504594</v>
       </c>
       <c r="T6" t="n">
-        <v>3.6884269599663</v>
+        <v>3.688426959966287</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06020283394939557</v>
+        <v>0.06020283394939537</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.767174911311423</v>
+        <v>0.7671749113114203</v>
       </c>
       <c r="H7" t="n">
-        <v>6.820882393296111</v>
+        <v>6.820882393296087</v>
       </c>
       <c r="I7" t="n">
-        <v>23.07104187834716</v>
+        <v>23.07104187834708</v>
       </c>
       <c r="J7" t="n">
-        <v>54.2392662297176</v>
+        <v>54.23926622971742</v>
       </c>
       <c r="K7" t="n">
-        <v>89.13177605963622</v>
+        <v>89.13177605963591</v>
       </c>
       <c r="L7" t="n">
-        <v>114.057986359882</v>
+        <v>114.0579863598816</v>
       </c>
       <c r="M7" t="n">
-        <v>120.2581545067533</v>
+        <v>120.2581545067529</v>
       </c>
       <c r="N7" t="n">
-        <v>117.3986843827745</v>
+        <v>117.3986843827741</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4366865551819</v>
+        <v>108.4366865551815</v>
       </c>
       <c r="P7" t="n">
-        <v>92.78631836442879</v>
+        <v>92.78631836442847</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.24043734626834</v>
+        <v>64.24043734626812</v>
       </c>
       <c r="R7" t="n">
-        <v>34.49497373951179</v>
+        <v>34.49497373951167</v>
       </c>
       <c r="S7" t="n">
-        <v>13.36976640894543</v>
+        <v>13.36976640894538</v>
       </c>
       <c r="T7" t="n">
-        <v>3.277929166512443</v>
+        <v>3.277929166512432</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04184590425335039</v>
+        <v>0.04184590425335025</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32069,34 +32069,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>208.2975609288281</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578282</v>
+        <v>555.1640776830027</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838146</v>
@@ -32160,31 +32160,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32321,19 +32321,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>626.8739812799222</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>211.6584993001651</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,28 +32543,28 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>602.6701715750705</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,31 +32780,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>693.1474615255909</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I26" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N26" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -33017,28 +33017,28 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>602.6701715750705</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H28" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838146</v>
@@ -33108,31 +33108,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P28" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33254,31 +33254,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160627</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
-        <v>650.6667329954525</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H31" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838146</v>
@@ -33345,31 +33345,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H32" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I32" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N32" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33491,31 +33491,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H33" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>211.6584993001656</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H34" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838146</v>
@@ -33582,31 +33582,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P34" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R34" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33734,25 +33734,25 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>693.1474615255904</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33986,16 +33986,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34147,7 +34147,7 @@
         <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q41" t="n">
         <v>554.8819566972011</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
@@ -34223,7 +34223,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34369,7 +34369,7 @@
         <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171624</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
         <v>810.867191086975</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>90.20065691200611</v>
+        <v>63.0339136782617</v>
       </c>
       <c r="L5" t="n">
-        <v>34.12936369875365</v>
+        <v>34.12936369875268</v>
       </c>
       <c r="M5" t="n">
-        <v>69.96482389084613</v>
+        <v>69.96482389084505</v>
       </c>
       <c r="N5" t="n">
-        <v>106.6561446076805</v>
+        <v>75.75734039124194</v>
       </c>
       <c r="O5" t="n">
-        <v>106.6561446076805</v>
+        <v>58.06554745018346</v>
       </c>
       <c r="P5" t="n">
-        <v>14.70810553768717</v>
+        <v>14.70810553768632</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>32.9762875175105</v>
+        <v>9.924410193300247</v>
       </c>
       <c r="L6" t="n">
-        <v>60.13503986444763</v>
+        <v>60.13503986444692</v>
       </c>
       <c r="M6" t="n">
-        <v>106.6561446076805</v>
+        <v>89.72714722841957</v>
       </c>
       <c r="N6" t="n">
-        <v>106.6561446076805</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="O6" t="n">
-        <v>75.12529777241292</v>
+        <v>75.12529777241215</v>
       </c>
       <c r="P6" t="n">
-        <v>40.766324884922</v>
+        <v>80.74719958839222</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>66.86228423375337</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>106.6561446076805</v>
+        <v>102.3468054316119</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="N7" t="n">
-        <v>106.6561446076805</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="O7" t="n">
-        <v>52.07578817621744</v>
+        <v>106.6561446076797</v>
       </c>
       <c r="P7" t="n">
-        <v>90.06487762932228</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>135.0753528219187</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L9" t="n">
         <v>138.6157555714078</v>
@@ -35261,7 +35261,7 @@
         <v>181.3104407622268</v>
       </c>
       <c r="N9" t="n">
-        <v>200.6633754067318</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="O9" t="n">
         <v>161.123548150263</v>
@@ -35270,7 +35270,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472408</v>
+        <v>50.60666042918616</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,7 +35337,7 @@
         <v>186.6999948493114</v>
       </c>
       <c r="M10" t="n">
-        <v>146.8505817925169</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N10" t="n">
         <v>207.9023887233376</v>
@@ -35346,7 +35346,7 @@
         <v>175.8534296854533</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369854</v>
+        <v>66.2222745999691</v>
       </c>
       <c r="Q10" t="n">
         <v>3.452847899353372</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.45993426216138</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659484</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133838</v>
+        <v>412.5678332385582</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714183</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295208</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386572</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119441</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>484.7399473579039</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>69.06225485572071</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36057,7 +36057,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36121,25 +36121,25 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440247</v>
@@ -36203,16 +36203,16 @@
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>460.073927130626</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>551.0134276035726</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116839</v>
       </c>
       <c r="K26" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>460.073927130626</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721828</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276938</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327294</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
-        <v>508.0704885510081</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>69.06225485572118</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>551.013427603572</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.851717432586928e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>255.0635279116842</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37795,7 +37795,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227516</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>81.45993426216029</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
@@ -37871,7 +37871,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721818</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169878</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
